--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/15/seed5/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.984</v>
+        <v>-7.824999999999998</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.734</v>
+        <v>-8.048999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -638,10 +638,10 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.332</v>
+        <v>-12.977</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.482000000000001</v>
+        <v>-7.913999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.284000000000001</v>
+        <v>-8.263</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.906000000000001</v>
+        <v>-8.191999999999998</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
